--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2f60d9ec78121ce/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{380C88C3-CD45-49CC-8F52-704CD89398B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FCBA66-19E8-477C-A5DB-A3A42D432FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,43 +138,6 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>プロジェクト：CS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-チームB
-　作成日：20230413</t>
-    </r>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>teamB</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -392,6 +355,43 @@
       </rPr>
       <t>郭俊良</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EB 熊文倩</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロジェクト：CS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+EB 熊文倩
+　作成日：20230413</t>
+    </r>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ビ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1038,57 +1038,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,7 +1066,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,13 +1105,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,7 +1712,7 @@
   <dimension ref="B2:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.8984375" defaultRowHeight="18"/>
@@ -1721,581 +1721,581 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
     </row>
     <row r="6" spans="2:24" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
     </row>
     <row r="7" spans="2:24" ht="18" customHeight="1">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
     </row>
     <row r="8" spans="2:24" ht="18" customHeight="1">
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
     </row>
     <row r="9" spans="2:24" ht="18" customHeight="1">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
     </row>
     <row r="10" spans="2:24" ht="18" customHeight="1">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
     </row>
     <row r="11" spans="2:24" ht="18" customHeight="1">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
     </row>
     <row r="12" spans="2:24" ht="18" customHeight="1">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
     </row>
     <row r="13" spans="2:24" ht="18" customHeight="1">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
     </row>
     <row r="14" spans="2:24" ht="18" customHeight="1">
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
     </row>
     <row r="15" spans="2:24" ht="18" customHeight="1">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
     </row>
     <row r="16" spans="2:24" ht="18" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
     </row>
     <row r="17" spans="2:24" ht="18" customHeight="1">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
     </row>
     <row r="18" spans="2:24" ht="18" customHeight="1">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
     </row>
     <row r="19" spans="2:24" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
     </row>
     <row r="20" spans="2:24">
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
     </row>
     <row r="23" spans="2:24">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2313,7 +2313,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -2355,7 +2355,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F3" s="23">
         <v>45029</v>
@@ -2593,8 +2593,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -2608,50 +2608,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" ht="38.549999999999997" customHeight="1">
       <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="53"/>
+      <c r="F3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="68"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="49"/>
+      <c r="I3" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="66"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="14"/>
@@ -2681,18 +2681,18 @@
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="16"/>
-      <c r="F8" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="16"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="18.600000000000001" thickBot="1">
@@ -2701,139 +2701,139 @@
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1">
       <c r="B11" s="16"/>
-      <c r="D11" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="D11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="16"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="16"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="16"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="16"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="41"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="50"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="16"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
       <c r="B18" s="16"/>
-      <c r="D18" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+      <c r="D18" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
       <c r="B19" s="16"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
       <c r="B20" s="16"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="16"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="16"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="16"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13">
@@ -2846,18 +2846,18 @@
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
       <c r="B26" s="16"/>
-      <c r="F26" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="F26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="16"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13">
@@ -2968,17 +2968,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="F26:H27"/>
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="D11:J15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="D18:J23"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,7 +2991,7 @@
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -3010,20 +3010,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3034,31 +3034,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="49"/>
+      <c r="F3" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="48"/>
+      <c r="I3" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3113,18 +3113,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3139,18 +3139,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3165,18 +3165,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3189,12 +3189,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3341,6 +3341,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -3350,15 +3359,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,20 +3392,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3416,31 +3416,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="49"/>
+      <c r="F3" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="48"/>
+      <c r="I3" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3495,18 +3495,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3521,18 +3521,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3547,18 +3547,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3571,12 +3571,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3723,6 +3723,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -3732,15 +3741,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3774,20 +3774,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3798,31 +3798,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="49"/>
+      <c r="F3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="48"/>
+      <c r="I3" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3877,18 +3877,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3903,18 +3903,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3929,18 +3929,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3953,12 +3953,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4105,6 +4105,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4114,15 +4123,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4156,20 +4156,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4180,31 +4180,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="49"/>
+      <c r="F3" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="48"/>
+      <c r="I3" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4259,18 +4259,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4285,18 +4285,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4311,18 +4311,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4335,12 +4335,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4487,6 +4487,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4496,15 +4505,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4538,20 +4538,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4562,31 +4562,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="49"/>
+      <c r="F3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="48"/>
+      <c r="I3" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4641,18 +4641,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4667,18 +4667,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4693,18 +4693,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4717,12 +4717,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="43"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4869,6 +4869,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4878,15 +4887,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FCBA66-19E8-477C-A5DB-A3A42D432FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCB6A5-07C6-4E5F-9C85-27BBB94AC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1066,6 +1066,33 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,31 +1138,7 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1151,9 +1154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,22 +1228,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>589012</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>20592</xdr:rowOff>
+      <xdr:colOff>459989</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432018</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>83132</xdr:rowOff>
+      <xdr:colOff>577855</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EF0BCC-5325-1B45-024D-C5AEDF6D183E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B3DA54-1ADF-434A-87FF-F84BEB8A86B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,8 +1259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1647427" y="3878013"/>
-          <a:ext cx="12254540" cy="7393733"/>
+          <a:off x="-1879309" y="3791235"/>
+          <a:ext cx="12735118" cy="7668593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,22 +1277,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>612388</xdr:colOff>
+      <xdr:colOff>626241</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>218883</xdr:rowOff>
+      <xdr:rowOff>108044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>443344</xdr:colOff>
+      <xdr:colOff>526471</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>90114</xdr:rowOff>
+      <xdr:rowOff>78421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AE42DC-AADE-51C2-7535-4D229907F113}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F191DFD-F96D-FA2E-A0A6-7D251E66F395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,8 +1308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1652185" y="3868911"/>
-          <a:ext cx="12298758" cy="7381683"/>
+          <a:off x="-1653268" y="3773008"/>
+          <a:ext cx="12397904" cy="7450957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,22 +1326,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>709802</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52197</xdr:rowOff>
+      <xdr:colOff>631004</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>471055</xdr:colOff>
+      <xdr:colOff>484909</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>61237</xdr:rowOff>
+      <xdr:rowOff>28360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B183E11-A8CE-573F-99FD-C0FA895E9B8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8853C823-4A62-190C-9B48-BED1CB7ADDE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,8 +1357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1540764" y="3923745"/>
-          <a:ext cx="12201040" cy="7311980"/>
+          <a:off x="-1635163" y="3782615"/>
+          <a:ext cx="12324894" cy="7404632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,22 +1375,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>516269</xdr:colOff>
+      <xdr:colOff>506745</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>176458</xdr:rowOff>
+      <xdr:rowOff>130563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>110897</xdr:rowOff>
+      <xdr:colOff>484908</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77EF16D-CB56-9757-CBFF-FF61BE456480}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D6F696-36B2-2AAD-7C30-5EC0B11E0540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,8 +1406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1780339" y="3858521"/>
-          <a:ext cx="12361966" cy="7380821"/>
+          <a:off x="-1810968" y="3833731"/>
+          <a:ext cx="12552244" cy="7528890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,7 +1711,7 @@
   </sheetPr>
   <dimension ref="B2:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
@@ -2593,7 +2593,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
@@ -2608,50 +2608,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" ht="38.549999999999997" customHeight="1">
       <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="66"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="14"/>
@@ -2681,18 +2681,18 @@
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="16"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="16"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="18.600000000000001" thickBot="1">
@@ -2701,139 +2701,139 @@
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1">
       <c r="B11" s="16"/>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="16"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="16"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="16"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="16"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="50"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="59"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="16"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
       <c r="B18" s="16"/>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
       <c r="B19" s="16"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
       <c r="B20" s="16"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="16"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="16"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="16"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13">
@@ -2846,18 +2846,18 @@
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
       <c r="B26" s="16"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="16"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13">
@@ -2968,17 +2968,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="F26:H27"/>
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="D11:J15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="D18:J23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BEEBF-9E84-4011-BAFA-FEE69E3D236D}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
@@ -3010,20 +3010,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3034,31 +3034,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3113,18 +3113,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3139,18 +3139,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3165,18 +3165,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3189,12 +3189,394 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
+      <c r="M26" s="17"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="16"/>
+      <c r="G28" s="11"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="16"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="16"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="16"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="16"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="16"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="16"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="16"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="16"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="16"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="16"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="16"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="16"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="16"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="16"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="16"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="16"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="16"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="16"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="16"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="16"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="16"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="16"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="16"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="16"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="16"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="16"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="16"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+  <dimension ref="B1:R57"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.69921875" style="5"/>
+    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.69921875" style="5"/>
+    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
+      <c r="B2" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="54">
+        <v>45027</v>
+      </c>
+      <c r="M3" s="55"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="16"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:18" ht="32.4">
+      <c r="B10" s="16"/>
+      <c r="I10" s="9"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="16"/>
+      <c r="G12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="16"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="16"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="16"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="16"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="16"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="16"/>
+      <c r="G20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="16"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="16"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="16"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="16"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="16"/>
+      <c r="G25" s="71"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="16"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3370,12 +3752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC463295-1FFA-4A80-BCDE-5DBBB3636C05}">
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -3392,20 +3774,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3416,31 +3798,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="66"/>
+      <c r="F3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="65"/>
+      <c r="I3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3495,18 +3877,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3521,18 +3903,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3547,18 +3929,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3571,12 +3953,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3723,6 +4105,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -3732,15 +4123,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,12 +4134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC463295-1FFA-4A80-BCDE-5DBBB3636C05}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE9B1A-D5A3-4ACD-80DC-483B9483EA7B}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -3774,20 +4156,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3798,31 +4180,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="66"/>
+      <c r="F3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3877,18 +4259,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3903,18 +4285,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3929,18 +4311,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3953,12 +4335,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4105,6 +4487,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -4114,15 +4505,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4134,12 +4516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE9B1A-D5A3-4ACD-80DC-483B9483EA7B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5EE05-D824-49C7-9963-F91A5C3AB7E3}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -4156,20 +4538,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4180,31 +4562,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="66"/>
+      <c r="F3" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="65"/>
+      <c r="I3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4259,18 +4641,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4285,18 +4667,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4311,18 +4693,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4335,12 +4717,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4487,6 +4869,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -4496,397 +4887,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5EE05-D824-49C7-9963-F91A5C3AB7E3}">
-  <dimension ref="B1:R57"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="69">
-        <v>45027</v>
-      </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="16"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:18" ht="32.4">
-      <c r="B10" s="16"/>
-      <c r="I10" s="9"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="16"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="16"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="16"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="16"/>
-      <c r="G28" s="11"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="16"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="16"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="16"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="16"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="16"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="16"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="16"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="16"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="16"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="16"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="16"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="16"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="16"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="16"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="16"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="16"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="16"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="16"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="16"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="16"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="16"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="16"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="16"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="16"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="16"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="16"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="16"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCB6A5-07C6-4E5F-9C85-27BBB94AC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F606CAB2-F4D2-42D3-89A4-9B155B2E02A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,17 @@
     <sheet name="ログイン画面" sheetId="3" r:id="rId3"/>
     <sheet name="個人情報画面" sheetId="12" r:id="rId4"/>
     <sheet name="資格証登録画面" sheetId="15" r:id="rId5"/>
-    <sheet name="承認待ち一覧画面" sheetId="16" r:id="rId6"/>
-    <sheet name="承認完了一覧画面" sheetId="17" r:id="rId7"/>
-    <sheet name="タスク詳細" sheetId="18" r:id="rId8"/>
+    <sheet name="タスク一覧画面" sheetId="16" r:id="rId6"/>
+    <sheet name="資格詳細画面" sheetId="17" r:id="rId7"/>
+    <sheet name="タスク詳細画面" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">タスク詳細!$A$1:$M$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">タスク一覧画面!$A$1:$M$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">タスク詳細画面!$A$1:$M$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ログイン画面!$A$1:$M$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">個人情報画面!$A$1:$M$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">資格証登録画面!$A$1:$M$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">承認完了一覧画面!$A$1:$M$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">承認待ち一覧画面!$A$1:$M$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">資格詳細画面!$A$1:$M$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$X$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$44</definedName>
   </definedNames>
@@ -241,23 +241,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>承認待ち一覧画面
-（USER04）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">EB </t>
     </r>
@@ -272,72 +255,6 @@
       </rPr>
       <t>戴玉霖</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>承認完了一覧画面
-（USER0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>タスク詳細
-（USER0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -391,6 +308,86 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タスク一覧画面
+（USER04）</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>資格詳細画面画面
+（USER0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>タスク詳細画面
+（USER0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1066,6 +1063,51 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,67 +1135,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,22 +1176,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>462962</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:colOff>534023</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>106498</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568036</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>124694</xdr:rowOff>
+      <xdr:rowOff>170155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B801EE0-C597-81D0-EAC4-6650F60A286E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E27F94-D08F-B4FE-D44D-AD47BC6447BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1627198" y="3835833"/>
-          <a:ext cx="12427530" cy="7859281"/>
+          <a:off x="-1796115" y="3915859"/>
+          <a:ext cx="12632943" cy="7584740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,22 +1225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>459989</xdr:colOff>
+      <xdr:colOff>326634</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66482</xdr:rowOff>
+      <xdr:rowOff>33580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>577855</xdr:colOff>
+      <xdr:colOff>452523</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:rowOff>152403</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B3DA54-1ADF-434A-87FF-F84BEB8A86B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5257B05F-82FE-A3AA-D631-B14EBD18FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1879309" y="3791235"/>
-          <a:ext cx="12735118" cy="7668593"/>
+          <a:off x="-2032033" y="3777702"/>
+          <a:ext cx="12781877" cy="7676616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,22 +1274,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>626241</xdr:colOff>
+      <xdr:colOff>547879</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108044</xdr:rowOff>
+      <xdr:rowOff>103285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>526471</xdr:colOff>
+      <xdr:colOff>522833</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>78421</xdr:rowOff>
+      <xdr:rowOff>193967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F191DFD-F96D-FA2E-A0A6-7D251E66F395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F9D870-AB38-3CA2-B03B-C11A4222D2A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,8 +1305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1653268" y="3773008"/>
-          <a:ext cx="12397904" cy="7450957"/>
+          <a:off x="-1754421" y="3791040"/>
+          <a:ext cx="12518209" cy="7525681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1326,22 +1323,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>631004</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130993</xdr:rowOff>
+      <xdr:colOff>713702</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
+      <xdr:colOff>540327</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>28360</xdr:rowOff>
+      <xdr:rowOff>71852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8853C823-4A62-190C-9B48-BED1CB7ADDE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1851876-0F3A-71DA-F110-192B1951960F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,8 +1354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1635163" y="3782615"/>
-          <a:ext cx="12324894" cy="7404632"/>
+          <a:off x="-1525290" y="3880562"/>
+          <a:ext cx="12243264" cy="7377352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,22 +1372,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>506745</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130563</xdr:rowOff>
+      <xdr:colOff>732318</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>484908</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19753</xdr:rowOff>
+      <xdr:colOff>540327</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D6F696-36B2-2AAD-7C30-5EC0B11E0540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AE541E-DB6E-C693-998B-ABC372A3DCCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,8 +1403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1810968" y="3833731"/>
-          <a:ext cx="12552244" cy="7528890"/>
+          <a:off x="-1501739" y="3870866"/>
+          <a:ext cx="12214778" cy="7358736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1850,7 +1847,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -2355,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="23">
         <v>45029</v>
@@ -2593,7 +2590,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
@@ -2608,50 +2605,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" ht="38.549999999999997" customHeight="1">
       <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="51"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="14"/>
@@ -2681,18 +2678,18 @@
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="16"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="16"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="18.600000000000001" thickBot="1">
@@ -2701,139 +2698,139 @@
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1">
       <c r="B11" s="16"/>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="16"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="16"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="16"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="16"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="50"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="16"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
       <c r="B18" s="16"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
       <c r="B19" s="16"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
       <c r="B20" s="16"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="16"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="16"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="16"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13">
@@ -2846,18 +2843,18 @@
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
       <c r="B26" s="16"/>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="16"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13">
@@ -2968,17 +2965,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="F26:H27"/>
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="D11:J15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="D18:J23"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BEEBF-9E84-4011-BAFA-FEE69E3D236D}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -3010,20 +3007,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3034,31 +3031,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3113,18 +3110,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3139,18 +3136,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3165,18 +3162,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3189,12 +3186,394 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
+      <c r="M26" s="17"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="16"/>
+      <c r="G28" s="11"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="16"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="16"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="16"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="16"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="16"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="16"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="16"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="16"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="16"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="16"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="16"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="16"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="16"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="16"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="16"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="16"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="16"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="16"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="16"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="16"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="16"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="16"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="16"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="16"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="16"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="16"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="16"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+  <dimension ref="B1:R57"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.69921875" style="5"/>
+    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.69921875" style="5"/>
+    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
+      <c r="B2" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="69">
+        <v>45027</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="16"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:18" ht="32.4">
+      <c r="B10" s="16"/>
+      <c r="I10" s="9"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="16"/>
+      <c r="G12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="16"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="16"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="16"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="16"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="16"/>
+      <c r="G20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="16"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="16"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="16"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="16"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="16"/>
+      <c r="G25" s="76"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="16"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3370,12 +3749,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC463295-1FFA-4A80-BCDE-5DBBB3636C05}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -3392,20 +3771,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3416,31 +3795,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="51"/>
+      <c r="F3" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="50"/>
+      <c r="I3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3495,18 +3874,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3521,18 +3900,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3547,18 +3926,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3571,12 +3950,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3723,6 +4102,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -3732,15 +4120,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,12 +4131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC463295-1FFA-4A80-BCDE-5DBBB3636C05}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE9B1A-D5A3-4ACD-80DC-483B9483EA7B}">
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -3774,20 +4153,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3798,31 +4177,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="51"/>
+      <c r="F3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="50"/>
+      <c r="I3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3877,18 +4256,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3903,18 +4282,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3929,18 +4308,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3953,12 +4332,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4105,6 +4484,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4114,15 +4502,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4134,12 +4513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE9B1A-D5A3-4ACD-80DC-483B9483EA7B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5EE05-D824-49C7-9963-F91A5C3AB7E3}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -4156,20 +4535,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4180,31 +4559,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="51"/>
+      <c r="F3" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4259,18 +4638,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4285,18 +4664,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4311,18 +4690,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4335,12 +4714,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4487,6 +4866,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4496,397 +4884,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5EE05-D824-49C7-9963-F91A5C3AB7E3}">
-  <dimension ref="B1:R57"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="54">
-        <v>45027</v>
-      </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="16"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:18" ht="32.4">
-      <c r="B10" s="16"/>
-      <c r="I10" s="9"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="16"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="16"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="16"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="16"/>
-      <c r="G28" s="11"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="16"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="16"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="16"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="16"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="16"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="16"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="16"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="16"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="16"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="16"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="16"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="16"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="16"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="16"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="16"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="16"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="16"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="16"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="16"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="16"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="16"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="16"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="16"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="16"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="16"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="16"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="16"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F606CAB2-F4D2-42D3-89A4-9B155B2E02A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A30368-8FC5-4741-BB95-9D2D935B6D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" tabRatio="657" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1063,6 +1063,33 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,31 +1135,7 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1148,9 +1151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,22 +1225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>326634</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33580</xdr:rowOff>
+      <xdr:colOff>796634</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>452523</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365618</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>152403</xdr:rowOff>
+      <xdr:rowOff>207818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5257B05F-82FE-A3AA-D631-B14EBD18FA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF33F9C-4E07-4D88-8776-897834123814}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,15 +1249,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-2032033" y="3777702"/>
-          <a:ext cx="12781877" cy="7676616"/>
+          <a:off x="-1511761" y="4045438"/>
+          <a:ext cx="12879502" cy="7881711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,9 +1718,9 @@
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="5.8984375" style="1"/>
+    <col min="1" max="16384" width="5.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
@@ -1817,7 +1823,7 @@
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
     </row>
-    <row r="6" spans="2:24" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="2:24" ht="19.5" thickBot="1">
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -2313,18 +2319,18 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.796875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="24"/>
-    <col min="3" max="3" width="10.69921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.796875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="24"/>
+    <col min="1" max="1" width="2.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="24"/>
+    <col min="3" max="3" width="10.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.45" customHeight="1">
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="24.4" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2594,61 +2600,61 @@
       <selection activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="5"/>
+    <col min="2" max="2" width="14.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:13" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="62" t="s">
+    <row r="1" spans="2:13" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:13" ht="37.15" customHeight="1">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
-    </row>
-    <row r="3" spans="2:13" ht="38.549999999999997" customHeight="1">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="66"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="14"/>
@@ -2678,159 +2684,159 @@
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="16"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="16"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="10" spans="2:13" ht="19.5" thickBot="1">
       <c r="B10" s="16"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1">
       <c r="B11" s="16"/>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="16"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="16"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="16"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="16"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="50"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="59"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="17" spans="2:13" ht="19.5" thickBot="1">
       <c r="B17" s="16"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
       <c r="B18" s="16"/>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
       <c r="B19" s="16"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
       <c r="B20" s="16"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="16"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="16"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="23" spans="2:13" ht="19.5" thickBot="1">
       <c r="B23" s="16"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13">
@@ -2843,18 +2849,18 @@
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
       <c r="B26" s="16"/>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="16"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13">
@@ -2949,7 +2955,7 @@
       <c r="B50" s="16"/>
       <c r="M50" s="17"/>
     </row>
-    <row r="51" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="51" spans="2:13" ht="19.5" thickBot="1">
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -2965,17 +2971,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="F26:H27"/>
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="D11:J15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="D18:J23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,71 +2997,71 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.69921875" style="5"/>
-    <col min="5" max="5" width="8.69921875" style="5" bestFit="1"/>
-    <col min="6" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.75" style="5"/>
+    <col min="5" max="5" width="8.75" style="5" bestFit="1"/>
+    <col min="6" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.75" style="5"/>
+    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
     <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.15" customHeight="1">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
+    <row r="3" spans="2:18" ht="38.65" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3093,7 +3099,7 @@
       <c r="B9" s="16"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="2:18" ht="32.4">
+    <row r="10" spans="2:18" ht="33">
       <c r="B10" s="16"/>
       <c r="I10" s="9"/>
       <c r="M10" s="17"/>
@@ -3110,18 +3116,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3136,18 +3142,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3162,18 +3168,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3186,12 +3192,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3322,7 +3328,389 @@
       <c r="B56" s="16"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+  <dimension ref="B1:R57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.75" style="5"/>
+    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.15" customHeight="1">
+      <c r="B2" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" ht="38.65" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="54">
+        <v>45027</v>
+      </c>
+      <c r="M3" s="55"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="16"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:18" ht="33">
+      <c r="B10" s="16"/>
+      <c r="I10" s="9"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="16"/>
+      <c r="G12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="16"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="16"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="16"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="16"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="16"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="16"/>
+      <c r="G20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="16"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="16"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="16"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="16"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="16"/>
+      <c r="G25" s="71"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="16"/>
+      <c r="G26" s="59"/>
+      <c r="M26" s="17"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="16"/>
+      <c r="G28" s="11"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="16"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="16"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="16"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="16"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="16"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="16"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="16"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="16"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="16"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="16"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="16"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="16"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="16"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="16"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="16"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="16"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="16"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="16"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="16"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="16"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="16"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="16"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="16"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="16"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="16"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="16"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="16"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="2:13" ht="19.5" thickBot="1">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -3367,77 +3755,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC463295-1FFA-4A80-BCDE-5DBBB3636C05}">
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.75" style="5"/>
+    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
     <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.15" customHeight="1">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
+    <row r="3" spans="2:18" ht="38.65" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="66"/>
+      <c r="F3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="65"/>
+      <c r="I3" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3475,7 +3863,7 @@
       <c r="B9" s="16"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="2:18" ht="32.4">
+    <row r="10" spans="2:18" ht="33">
       <c r="B10" s="16"/>
       <c r="I10" s="9"/>
       <c r="M10" s="17"/>
@@ -3492,18 +3880,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3518,18 +3906,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3544,18 +3932,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3568,12 +3956,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3704,7 +4092,7 @@
       <c r="B56" s="16"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="2:13" ht="19.5" thickBot="1">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -3720,6 +4108,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -3729,397 +4126,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC463295-1FFA-4A80-BCDE-5DBBB3636C05}">
-  <dimension ref="B1:R57"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="69">
-        <v>45027</v>
-      </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="16"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:18" ht="32.4">
-      <c r="B10" s="16"/>
-      <c r="I10" s="9"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="16"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="16"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="16"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="16"/>
-      <c r="G28" s="11"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="16"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="16"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="16"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="16"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="16"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="16"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="16"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="16"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="16"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="16"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="16"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="16"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="16"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="16"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="16"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="16"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="16"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="16"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="16"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="16"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="16"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="16"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="16"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="16"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="16"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="16"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="16"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4139,69 +4145,69 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.75" style="5"/>
+    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
     <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.15" customHeight="1">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
+    <row r="3" spans="2:18" ht="38.65" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4239,7 +4245,7 @@
       <c r="B9" s="16"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="2:18" ht="32.4">
+    <row r="10" spans="2:18" ht="33">
       <c r="B10" s="16"/>
       <c r="I10" s="9"/>
       <c r="M10" s="17"/>
@@ -4256,18 +4262,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4282,18 +4288,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4308,18 +4314,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4332,12 +4338,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4468,7 +4474,7 @@
       <c r="B56" s="16"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="2:13" ht="19.5" thickBot="1">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -4484,6 +4490,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -4493,15 +4508,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4517,73 +4523,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5EE05-D824-49C7-9963-F91A5C3AB7E3}">
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="7" width="14.69921875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.69921875" style="5"/>
-    <col min="14" max="14" width="53.09765625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.75" style="5"/>
+    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
     <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.15" customHeight="1">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="2:18" ht="38.549999999999997" customHeight="1">
+    <row r="3" spans="2:18" ht="38.65" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="65"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="54">
         <v>45027</v>
       </c>
-      <c r="M3" s="70"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4621,7 +4627,7 @@
       <c r="B9" s="16"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" spans="2:18" ht="32.4">
+    <row r="10" spans="2:18" ht="33">
       <c r="B10" s="16"/>
       <c r="I10" s="9"/>
       <c r="M10" s="17"/>
@@ -4638,18 +4644,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="71"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="50"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="59"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4664,18 +4670,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="50"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="50"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="59"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4690,18 +4696,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="50"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="59"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="59"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4714,12 +4720,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="76"/>
+      <c r="G25" s="71"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="59"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4850,7 +4856,7 @@
       <c r="B56" s="16"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="2:13" ht="19.5" thickBot="1">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -4866,6 +4872,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:J14"/>
@@ -4875,15 +4890,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面レイアウト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A30368-8FC5-4741-BB95-9D2D935B6D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABDFA4-4BB0-452B-A9D8-B82BA9EFA420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" tabRatio="657" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,6 +1063,51 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,67 +1135,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,22 +1225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>796634</xdr:colOff>
+      <xdr:colOff>514729</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109134</xdr:rowOff>
+      <xdr:rowOff>127713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>365618</xdr:colOff>
+      <xdr:colOff>34636</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
+      <xdr:rowOff>232348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF33F9C-4E07-4D88-8776-897834123814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA5975A-DAF2-62DF-476A-2AC5516ECF5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,8 +1262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-1511761" y="4045438"/>
-          <a:ext cx="12879502" cy="7881711"/>
+          <a:off x="-1821181" y="4091532"/>
+          <a:ext cx="12885453" cy="7832634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2611,50 +2611,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:13" ht="37.15" customHeight="1">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" ht="38.65" customHeight="1">
       <c r="B3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="51"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="14"/>
@@ -2684,18 +2684,18 @@
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="16"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="16"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" ht="19.5" thickBot="1">
@@ -2704,139 +2704,139 @@
     </row>
     <row r="11" spans="2:13" ht="18" customHeight="1">
       <c r="B11" s="16"/>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="16"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="16"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="16"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="16"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="18" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="50"/>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" thickBot="1">
       <c r="B17" s="16"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:13" ht="18" customHeight="1">
       <c r="B18" s="16"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="18" customHeight="1">
       <c r="B19" s="16"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="18" customHeight="1">
       <c r="B20" s="16"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="16"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="16"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" thickBot="1">
       <c r="B23" s="16"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
       <c r="M23" s="17"/>
     </row>
     <row r="24" spans="2:13">
@@ -2849,18 +2849,18 @@
     </row>
     <row r="26" spans="2:13" ht="18" customHeight="1">
       <c r="B26" s="16"/>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="16"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13">
@@ -2971,17 +2971,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="F26:H27"/>
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="D11:J15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="D18:J23"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3013,20 +3013,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.15" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3037,31 +3037,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3116,18 +3116,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3142,18 +3142,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3168,18 +3168,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3192,12 +3192,394 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
+      <c r="M26" s="17"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="16"/>
+      <c r="G28" s="11"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="16"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="16"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="16"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="16"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="16"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="16"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="16"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="16"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="16"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="16"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="16"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="16"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="16"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="16"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="16"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="16"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="16"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="16"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="16"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="16"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="16"/>
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="16"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="16"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="16"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="16"/>
+      <c r="M54" s="17"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="16"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="16"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
+  <dimension ref="B1:R57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.75" style="5"/>
+    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.75" style="5"/>
+    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:18" ht="37.15" customHeight="1">
+      <c r="B2" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" ht="38.65" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="69">
+        <v>45027</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="16"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="16"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="16"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:18" ht="33">
+      <c r="B10" s="16"/>
+      <c r="I10" s="9"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="16"/>
+      <c r="G12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="16"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="16"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="16"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="16"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="16"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="16"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="16"/>
+      <c r="G20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="16"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="16"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="16"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="16"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="16"/>
+      <c r="G25" s="76"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="16"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -3362,388 +3744,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="1048575" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A4B4FA-7E7B-4E10-A4D3-DEC5B8150226}">
-  <dimension ref="B1:R57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.75" style="5"/>
-    <col min="7" max="7" width="14.75" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.75" style="5"/>
-    <col min="14" max="14" width="53.125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
-    <row r="2" spans="2:18" ht="37.15" customHeight="1">
-      <c r="B2" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" ht="38.65" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="54">
-        <v>45027</v>
-      </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="16"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="16"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="16"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:18" ht="33">
-      <c r="B10" s="16"/>
-      <c r="I10" s="9"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="16"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="16"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="16"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="16"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
-      <c r="M26" s="17"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="16"/>
-      <c r="G28" s="11"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="16"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="16"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="16"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="16"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="16"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="16"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="16"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="16"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="16"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="16"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="16"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="16"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="16"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="16"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="16"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="16"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="16"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="16"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="16"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="16"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="16"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="16"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="16"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="16"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="16"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="16"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="16"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:13" ht="19.5" thickBot="1">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3777,20 +3777,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.15" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -3801,31 +3801,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -3880,18 +3880,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -3906,18 +3906,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -3932,18 +3932,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -3956,12 +3956,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4108,6 +4108,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4117,15 +4126,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4159,20 +4159,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.15" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4183,31 +4183,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4262,18 +4262,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4288,18 +4288,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4314,18 +4314,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4338,12 +4338,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4490,6 +4490,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4499,15 +4508,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4541,20 +4541,20 @@
   <sheetData>
     <row r="1" spans="2:18" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:18" ht="37.15" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -4565,31 +4565,31 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="69">
         <v>45027</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
@@ -4644,18 +4644,18 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="16"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="50"/>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="16"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:18">
@@ -4670,18 +4670,18 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="16"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="59"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="50"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="50"/>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="16"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:15">
@@ -4696,18 +4696,18 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="16"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="59"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="50"/>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="16"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="2:15">
@@ -4720,12 +4720,12 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="16"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="76"/>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="16"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="50"/>
       <c r="M26" s="17"/>
       <c r="O26" s="28"/>
     </row>
@@ -4872,6 +4872,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -4881,15 +4890,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
